--- a/media_dea.xlsx
+++ b/media_dea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,16 +459,6 @@
           <t>Eff_VRS_MAX</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Eff_SBM_CRS</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Eff_SBM_VRS</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -488,12 +478,6 @@
       <c r="E2" t="n">
         <v>1.0044</v>
       </c>
-      <c r="F2" t="n">
-        <v>-6849.386</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-0.1767</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -513,12 +497,6 @@
       <c r="E3" t="n">
         <v>1.0902</v>
       </c>
-      <c r="F3" t="n">
-        <v>-4438.5113</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.303</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -537,12 +515,6 @@
       </c>
       <c r="E4" t="n">
         <v>1.0048</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-211194.3691</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-39.8084</v>
       </c>
     </row>
   </sheetData>

--- a/media_dea.xlsx
+++ b/media_dea.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8948</v>
+        <v>0.9932</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9271</v>
+        <v>0.9963</v>
       </c>
       <c r="D3" t="n">
-        <v>1.1261</v>
+        <v>1.0069</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0902</v>
+        <v>1.0039</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9932</v>
+        <v>0.8948</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9954</v>
+        <v>0.9254</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0069</v>
+        <v>1.1261</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0048</v>
+        <v>1.1042</v>
       </c>
     </row>
   </sheetData>
